--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1381EB7-B845-444F-9A38-AC70BA4B2A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DF038-89F2-4EB2-835C-F5EA8DC22A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="310">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -942,6 +942,30 @@
   </si>
   <si>
     <t>of a room</t>
+  </si>
+  <si>
+    <t>wary</t>
+  </si>
+  <si>
+    <t>weary</t>
+  </si>
+  <si>
+    <t>diffidente</t>
+  </si>
+  <si>
+    <t>stanco</t>
+  </si>
+  <si>
+    <t>not completely trusting or certain about something or someone. Feeling or showing caution about possible dangers or problems.</t>
+  </si>
+  <si>
+    <t>cauto</t>
+  </si>
+  <si>
+    <t>very tired or lacking energy and enthusiasm. Può anche essere verbo</t>
+  </si>
+  <si>
+    <t>adjective (exteme case/very much). Especially regarding emotions, mentally, or about a situation</t>
   </si>
 </sst>
 </file>
@@ -1313,11 +1337,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2660,6 +2684,40 @@
         <v>297</v>
       </c>
     </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>304</v>
+      </c>
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" t="s">
+        <v>308</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96DF038-89F2-4EB2-835C-F5EA8DC22A77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910320F1-1BF0-47E5-A65E-A075CB50D9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="312">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -966,6 +966,12 @@
   </si>
   <si>
     <t>adjective (exteme case/very much). Especially regarding emotions, mentally, or about a situation</t>
+  </si>
+  <si>
+    <t>stork</t>
+  </si>
+  <si>
+    <t>cicogna</t>
   </si>
 </sst>
 </file>
@@ -1337,11 +1343,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2718,6 +2724,17 @@
         <v>308</v>
       </c>
     </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>310</v>
+      </c>
+      <c r="B78" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910320F1-1BF0-47E5-A65E-A075CB50D9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD090AF7-1563-464A-8A52-7E4B64839109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="394">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -818,9 +818,6 @@
     <t>to thwart</t>
   </si>
   <si>
-    <t>constrastare</t>
-  </si>
-  <si>
     <t>ostacolare</t>
   </si>
   <si>
@@ -972,6 +969,255 @@
   </si>
   <si>
     <t>cicogna</t>
+  </si>
+  <si>
+    <t>contrastare</t>
+  </si>
+  <si>
+    <t>grapefruit</t>
+  </si>
+  <si>
+    <t>pompelmo</t>
+  </si>
+  <si>
+    <t>calf</t>
+  </si>
+  <si>
+    <t>vitello</t>
+  </si>
+  <si>
+    <t>polpaccio</t>
+  </si>
+  <si>
+    <t>body part</t>
+  </si>
+  <si>
+    <t>animal</t>
+  </si>
+  <si>
+    <t>a young horse</t>
+  </si>
+  <si>
+    <t>foal</t>
+  </si>
+  <si>
+    <t>puledro</t>
+  </si>
+  <si>
+    <t>fazzoletto</t>
+  </si>
+  <si>
+    <t>tissue</t>
+  </si>
+  <si>
+    <t>di carta</t>
+  </si>
+  <si>
+    <t>drawer</t>
+  </si>
+  <si>
+    <t>cassetto</t>
+  </si>
+  <si>
+    <t>pluck</t>
+  </si>
+  <si>
+    <t>cogliere</t>
+  </si>
+  <si>
+    <t>strappare</t>
+  </si>
+  <si>
+    <t>to pull something, especially with a sudden movement, in order to remove it.</t>
+  </si>
+  <si>
+    <t>of a flower, or a fruit</t>
+  </si>
+  <si>
+    <t>spennare</t>
+  </si>
+  <si>
+    <t>of a bird</t>
+  </si>
+  <si>
+    <t>to remove the feathers from a chicken or other bird so that it can be cooked and eaten</t>
+  </si>
+  <si>
+    <t>to pluck</t>
+  </si>
+  <si>
+    <t>dull</t>
+  </si>
+  <si>
+    <t>noioso</t>
+  </si>
+  <si>
+    <t>of a person or something</t>
+  </si>
+  <si>
+    <t>not interesting or exciting in any way</t>
+  </si>
+  <si>
+    <t>of tone</t>
+  </si>
+  <si>
+    <t>opaco</t>
+  </si>
+  <si>
+    <t>not clear, bright, or shiny. Of a sound: sordo/attenuato</t>
+  </si>
+  <si>
+    <t>smorto</t>
+  </si>
+  <si>
+    <t>cardine</t>
+  </si>
+  <si>
+    <t>hinge</t>
+  </si>
+  <si>
+    <t>cerniera</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>pentola</t>
+  </si>
+  <si>
+    <t>to cook</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>padella</t>
+  </si>
+  <si>
+    <t>ladle</t>
+  </si>
+  <si>
+    <t>mestolo</t>
+  </si>
+  <si>
+    <t>seep</t>
+  </si>
+  <si>
+    <t>filtrare</t>
+  </si>
+  <si>
+    <t>to ooze</t>
+  </si>
+  <si>
+    <t>to seep</t>
+  </si>
+  <si>
+    <t>filter</t>
+  </si>
+  <si>
+    <t>(of a liquid) flow or leak slowly through porous material or small holes. Filter when it's related to actively doing it. "Pesticides are seeping out of farmland and into the water supply."</t>
+  </si>
+  <si>
+    <t>colare</t>
+  </si>
+  <si>
+    <t>to seep. Of lava</t>
+  </si>
+  <si>
+    <t>barren</t>
+  </si>
+  <si>
+    <t>sterile</t>
+  </si>
+  <si>
+    <t>arido</t>
+  </si>
+  <si>
+    <t>of a land</t>
+  </si>
+  <si>
+    <t>(of land) too poor to produce much or any vegetation. (of a place or building) bleak and lifeless.</t>
+  </si>
+  <si>
+    <t>bleak</t>
+  </si>
+  <si>
+    <t>spoglio</t>
+  </si>
+  <si>
+    <t>shabby</t>
+  </si>
+  <si>
+    <t>squallido</t>
+  </si>
+  <si>
+    <t>of a place</t>
+  </si>
+  <si>
+    <t>of a place or behaviour</t>
+  </si>
+  <si>
+    <t>filtrare, stillare, lava oozing. To flow slowly out of something through a small opening, or to slowly produce a thick sticky liquid.</t>
+  </si>
+  <si>
+    <t>to sear</t>
+  </si>
+  <si>
+    <t>scottare</t>
+  </si>
+  <si>
+    <t>burn or scorch the surface of (something) with a sudden, intense heat.</t>
+  </si>
+  <si>
+    <t>sear</t>
+  </si>
+  <si>
+    <t>ooze</t>
+  </si>
+  <si>
+    <t>hefty</t>
+  </si>
+  <si>
+    <t>forte</t>
+  </si>
+  <si>
+    <t>robusto</t>
+  </si>
+  <si>
+    <t>corposo</t>
+  </si>
+  <si>
+    <t>large in amount, size, force, etc. Tipo corposo, robusto. "A hefty bill/fine" "Her salary will go up by a hefty 13 percent." "A hefty book containing a lot of information"</t>
+  </si>
+  <si>
+    <t>(informal) in terms of size/amount, heavy weight</t>
+  </si>
+  <si>
+    <t>to resort</t>
+  </si>
+  <si>
+    <t>ricorrere</t>
+  </si>
+  <si>
+    <t>resort</t>
+  </si>
+  <si>
+    <t>fawn</t>
+  </si>
+  <si>
+    <t>cerbiatto</t>
+  </si>
+  <si>
+    <t>to despise</t>
+  </si>
+  <si>
+    <t>disprezzare</t>
+  </si>
+  <si>
+    <t>despise</t>
+  </si>
+  <si>
+    <t>the two groups despise each other.</t>
   </si>
 </sst>
 </file>
@@ -1343,11 +1589,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D78" sqref="D78"/>
+      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,10 +2083,10 @@
         <v>30</v>
       </c>
       <c r="D31" t="s">
+        <v>297</v>
+      </c>
+      <c r="E31" t="s">
         <v>298</v>
-      </c>
-      <c r="E31" t="s">
-        <v>299</v>
       </c>
       <c r="F31" t="s">
         <v>82</v>
@@ -1849,7 +2095,7 @@
         <v>84</v>
       </c>
       <c r="H31" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -2094,7 +2340,7 @@
         <v>43</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E44" t="s">
         <v>136</v>
@@ -2524,110 +2770,110 @@
         <v>259</v>
       </c>
       <c r="B67" t="s">
-        <v>260</v>
+        <v>311</v>
       </c>
       <c r="C67">
         <v>66</v>
       </c>
       <c r="D67" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F67" t="s">
         <v>256</v>
       </c>
       <c r="G67" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I67" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J67" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
+        <v>262</v>
+      </c>
+      <c r="B68" t="s">
         <v>263</v>
-      </c>
-      <c r="B68" t="s">
-        <v>264</v>
       </c>
       <c r="C68">
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" t="s">
+        <v>269</v>
+      </c>
+      <c r="J68" t="s">
         <v>266</v>
-      </c>
-      <c r="G68" t="s">
-        <v>270</v>
-      </c>
-      <c r="J68" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
         <v>271</v>
-      </c>
-      <c r="B69" t="s">
-        <v>272</v>
       </c>
       <c r="C69">
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>272</v>
+      </c>
+      <c r="G69" t="s">
         <v>273</v>
       </c>
-      <c r="G69" t="s">
+      <c r="J69" t="s">
         <v>274</v>
-      </c>
-      <c r="J69" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>275</v>
+      </c>
+      <c r="B70" t="s">
         <v>276</v>
-      </c>
-      <c r="B70" t="s">
-        <v>277</v>
       </c>
       <c r="C70">
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>277</v>
+      </c>
+      <c r="J70" t="s">
         <v>278</v>
-      </c>
-      <c r="J70" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
+        <v>278</v>
+      </c>
+      <c r="B71" t="s">
         <v>279</v>
-      </c>
-      <c r="B71" t="s">
-        <v>280</v>
       </c>
       <c r="C71">
         <v>70</v>
       </c>
       <c r="D71" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B72" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C72">
         <v>71</v>
@@ -2635,104 +2881,494 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
+        <v>284</v>
+      </c>
+      <c r="B73" t="s">
         <v>285</v>
-      </c>
-      <c r="B73" t="s">
-        <v>286</v>
       </c>
       <c r="C73">
         <v>72</v>
       </c>
       <c r="D73" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I73" t="s">
+        <v>286</v>
+      </c>
+      <c r="J73" t="s">
         <v>287</v>
-      </c>
-      <c r="J73" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C74">
         <v>73</v>
       </c>
       <c r="D74" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J74" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
+        <v>294</v>
+      </c>
+      <c r="B75" t="s">
         <v>295</v>
-      </c>
-      <c r="B75" t="s">
-        <v>296</v>
       </c>
       <c r="C75">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B76" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C76">
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>305</v>
+      </c>
+      <c r="F76" t="s">
         <v>306</v>
-      </c>
-      <c r="F76" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B77" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C77">
         <v>76</v>
       </c>
       <c r="D77" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E77" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
+        <v>309</v>
+      </c>
+      <c r="B78" t="s">
         <v>310</v>
-      </c>
-      <c r="B78" t="s">
-        <v>311</v>
       </c>
       <c r="C78">
         <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>312</v>
+      </c>
+      <c r="B79" t="s">
+        <v>313</v>
+      </c>
+      <c r="C79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>314</v>
+      </c>
+      <c r="B80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B81" t="s">
+        <v>316</v>
+      </c>
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" t="s">
+        <v>321</v>
+      </c>
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>322</v>
+      </c>
+      <c r="B83" t="s">
+        <v>323</v>
+      </c>
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>325</v>
+      </c>
+      <c r="B84" t="s">
+        <v>326</v>
+      </c>
+      <c r="C84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>335</v>
+      </c>
+      <c r="B85" t="s">
+        <v>328</v>
+      </c>
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85" t="s">
+        <v>331</v>
+      </c>
+      <c r="E85" t="s">
+        <v>330</v>
+      </c>
+      <c r="F85" t="s">
+        <v>329</v>
+      </c>
+      <c r="J85" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>335</v>
+      </c>
+      <c r="B86" t="s">
+        <v>332</v>
+      </c>
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" t="s">
+        <v>334</v>
+      </c>
+      <c r="J86" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>336</v>
+      </c>
+      <c r="B87" t="s">
+        <v>337</v>
+      </c>
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87" t="s">
+        <v>338</v>
+      </c>
+      <c r="E87" t="s">
+        <v>339</v>
+      </c>
+      <c r="G87" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>336</v>
+      </c>
+      <c r="B88" t="s">
+        <v>341</v>
+      </c>
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88" t="s">
+        <v>340</v>
+      </c>
+      <c r="E88" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>345</v>
+      </c>
+      <c r="B89" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="G89" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>347</v>
+      </c>
+      <c r="B90" t="s">
+        <v>348</v>
+      </c>
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>350</v>
+      </c>
+      <c r="B91" t="s">
+        <v>351</v>
+      </c>
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>352</v>
+      </c>
+      <c r="B92" t="s">
+        <v>353</v>
+      </c>
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>357</v>
+      </c>
+      <c r="B93" t="s">
+        <v>355</v>
+      </c>
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93" t="s">
+        <v>356</v>
+      </c>
+      <c r="E93" t="s">
+        <v>359</v>
+      </c>
+      <c r="H93" t="s">
+        <v>358</v>
+      </c>
+      <c r="J93" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>356</v>
+      </c>
+      <c r="B94" t="s">
+        <v>360</v>
+      </c>
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94" t="s">
+        <v>361</v>
+      </c>
+      <c r="E94" t="s">
+        <v>373</v>
+      </c>
+      <c r="J94" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>362</v>
+      </c>
+      <c r="B95" t="s">
+        <v>363</v>
+      </c>
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95" t="s">
+        <v>365</v>
+      </c>
+      <c r="E95" t="s">
+        <v>366</v>
+      </c>
+      <c r="G95" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>367</v>
+      </c>
+      <c r="B96" t="s">
+        <v>368</v>
+      </c>
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>369</v>
+      </c>
+      <c r="B97" t="s">
+        <v>370</v>
+      </c>
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>374</v>
+      </c>
+      <c r="B98" t="s">
+        <v>375</v>
+      </c>
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>376</v>
+      </c>
+      <c r="J98" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>379</v>
+      </c>
+      <c r="B99" t="s">
+        <v>380</v>
+      </c>
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99" t="s">
+        <v>384</v>
+      </c>
+      <c r="E99" t="s">
+        <v>383</v>
+      </c>
+      <c r="F99" t="s">
+        <v>382</v>
+      </c>
+      <c r="G99" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>385</v>
+      </c>
+      <c r="B100" t="s">
+        <v>386</v>
+      </c>
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="J100" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>388</v>
+      </c>
+      <c r="B101" t="s">
+        <v>389</v>
+      </c>
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>390</v>
+      </c>
+      <c r="B102" t="s">
+        <v>391</v>
+      </c>
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>393</v>
+      </c>
+      <c r="J102" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD090AF7-1563-464A-8A52-7E4B64839109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CC97F-532D-4336-B440-A0620F9D83EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="401">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1218,6 +1218,27 @@
   </si>
   <si>
     <t>the two groups despise each other.</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>to mesmerize</t>
+  </si>
+  <si>
+    <t>ipnotizzare</t>
+  </si>
+  <si>
+    <t>non letteralmente</t>
+  </si>
+  <si>
+    <t>capture the complete attention of (someone). NOT literally to hypnotize</t>
+  </si>
+  <si>
+    <t>mesmerize</t>
+  </si>
+  <si>
+    <t>to hypnotize</t>
   </si>
 </sst>
 </file>
@@ -1589,11 +1610,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J102"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B97" sqref="B97"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3121,6 +3142,9 @@
       <c r="G87" t="s">
         <v>343</v>
       </c>
+      <c r="I87" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -3369,6 +3393,29 @@
       </c>
       <c r="J102" t="s">
         <v>392</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>395</v>
+      </c>
+      <c r="B103" t="s">
+        <v>396</v>
+      </c>
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103" t="s">
+        <v>397</v>
+      </c>
+      <c r="E103" t="s">
+        <v>398</v>
+      </c>
+      <c r="H103" t="s">
+        <v>400</v>
+      </c>
+      <c r="J103" t="s">
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5CC97F-532D-4336-B440-A0620F9D83EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB187D8-5A6D-4BC3-BF82-C9F02C2D6C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="404">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1239,6 +1239,15 @@
   </si>
   <si>
     <t>to hypnotize</t>
+  </si>
+  <si>
+    <t>to tamper</t>
+  </si>
+  <si>
+    <t>manomettere</t>
+  </si>
+  <si>
+    <t>tamper</t>
   </si>
 </sst>
 </file>
@@ -1610,11 +1619,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J103"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I103" sqref="I103"/>
+      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3418,6 +3427,20 @@
         <v>399</v>
       </c>
     </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>401</v>
+      </c>
+      <c r="B104" t="s">
+        <v>402</v>
+      </c>
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="J104" t="s">
+        <v>403</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB187D8-5A6D-4BC3-BF82-C9F02C2D6C7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888881E8-A53B-43FD-8C58-D87D67B64DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="404">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="412">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1248,6 +1248,30 @@
   </si>
   <si>
     <t>tamper</t>
+  </si>
+  <si>
+    <t>bleach</t>
+  </si>
+  <si>
+    <t>candeggina</t>
+  </si>
+  <si>
+    <t>a strong chemical used for cleaning things or removing colour from things</t>
+  </si>
+  <si>
+    <t>to bleach</t>
+  </si>
+  <si>
+    <t>candeggiare</t>
+  </si>
+  <si>
+    <t>decolorare</t>
+  </si>
+  <si>
+    <t>scolorire</t>
+  </si>
+  <si>
+    <t>to remove the colour from something or make it lighter, with the use of chemicals or by the effect of light from the sun; to become lighter in this way . Anche l'uso di candeggina: candeggiare</t>
   </si>
 </sst>
 </file>
@@ -1619,11 +1643,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J104"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D104" sqref="D104"/>
+      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3066,10 +3090,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
+        <v>323</v>
+      </c>
+      <c r="B83" t="s">
         <v>322</v>
-      </c>
-      <c r="B83" t="s">
-        <v>323</v>
       </c>
       <c r="C83">
         <v>82</v>
@@ -3439,6 +3463,49 @@
       </c>
       <c r="J104" t="s">
         <v>403</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>404</v>
+      </c>
+      <c r="B105" t="s">
+        <v>405</v>
+      </c>
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>43</v>
+      </c>
+      <c r="E105" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>407</v>
+      </c>
+      <c r="B106" t="s">
+        <v>409</v>
+      </c>
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106" t="s">
+        <v>44</v>
+      </c>
+      <c r="E106" t="s">
+        <v>411</v>
+      </c>
+      <c r="F106" t="s">
+        <v>410</v>
+      </c>
+      <c r="G106" t="s">
+        <v>408</v>
+      </c>
+      <c r="J106" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{888881E8-A53B-43FD-8C58-D87D67B64DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882DCF07-4F55-4817-AA78-C02FB65A55B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="435">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1272,6 +1272,75 @@
   </si>
   <si>
     <t>to remove the colour from something or make it lighter, with the use of chemicals or by the effect of light from the sun; to become lighter in this way . Anche l'uso di candeggina: candeggiare</t>
+  </si>
+  <si>
+    <t>hull</t>
+  </si>
+  <si>
+    <t>scafo</t>
+  </si>
+  <si>
+    <t>last-ditch</t>
+  </si>
+  <si>
+    <t>ultimo disperato</t>
+  </si>
+  <si>
+    <t>effort or attempt</t>
+  </si>
+  <si>
+    <t>an effort or attempt that is made at the end of a series of failures to solve a problem, and is not expected to succeed. Also last-gasp</t>
+  </si>
+  <si>
+    <t>ditch</t>
+  </si>
+  <si>
+    <t>a narrow channel dug at the side of a road or field, to hold or carry away water.</t>
+  </si>
+  <si>
+    <t>fosso</t>
+  </si>
+  <si>
+    <t>fossa</t>
+  </si>
+  <si>
+    <t>right off the bat</t>
+  </si>
+  <si>
+    <t>su due piedi</t>
+  </si>
+  <si>
+    <t>north american idiom</t>
+  </si>
+  <si>
+    <t>You can't expect to be accepted in a new town right off the bat.</t>
+  </si>
+  <si>
+    <t>off the bat</t>
+  </si>
+  <si>
+    <t>dipanare</t>
+  </si>
+  <si>
+    <t>of a cloth</t>
+  </si>
+  <si>
+    <t>to unravel</t>
+  </si>
+  <si>
+    <t>sbrogliare</t>
+  </si>
+  <si>
+    <t>svelare</t>
+  </si>
+  <si>
+    <t>of an event</t>
+  </si>
+  <si>
+    <t>investigate and solve or explain (something complicated or puzzling). Anche riferito a sbrogliare una matassa</t>
+  </si>
+  <si>
+    <t>to disengage or separate the threads</t>
   </si>
 </sst>
 </file>
@@ -1643,11 +1712,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:J112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F106" sqref="F106"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3508,6 +3577,114 @@
         <v>404</v>
       </c>
     </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>412</v>
+      </c>
+      <c r="B107" t="s">
+        <v>413</v>
+      </c>
+      <c r="C107">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>414</v>
+      </c>
+      <c r="B108" t="s">
+        <v>415</v>
+      </c>
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108" t="s">
+        <v>416</v>
+      </c>
+      <c r="E108" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>418</v>
+      </c>
+      <c r="B109" t="s">
+        <v>420</v>
+      </c>
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>43</v>
+      </c>
+      <c r="E109" t="s">
+        <v>419</v>
+      </c>
+      <c r="G109" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" t="s">
+        <v>423</v>
+      </c>
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110" t="s">
+        <v>424</v>
+      </c>
+      <c r="E110" t="s">
+        <v>425</v>
+      </c>
+      <c r="I110" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>429</v>
+      </c>
+      <c r="B111" t="s">
+        <v>427</v>
+      </c>
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111" t="s">
+        <v>432</v>
+      </c>
+      <c r="E111" t="s">
+        <v>433</v>
+      </c>
+      <c r="F111" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>429</v>
+      </c>
+      <c r="B112" t="s">
+        <v>430</v>
+      </c>
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112" t="s">
+        <v>428</v>
+      </c>
+      <c r="E112" t="s">
+        <v>434</v>
+      </c>
+      <c r="G112" t="s">
+        <v>427</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882DCF07-4F55-4817-AA78-C02FB65A55B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837754D1-6AFA-4298-80F1-2EEC5047930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="472">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1341,6 +1341,117 @@
   </si>
   <si>
     <t>to disengage or separate the threads</t>
+  </si>
+  <si>
+    <t>unravel</t>
+  </si>
+  <si>
+    <t>causa scatenante</t>
+  </si>
+  <si>
+    <t>incidente provocante</t>
+  </si>
+  <si>
+    <t>inciting incident</t>
+  </si>
+  <si>
+    <t>he moment, event, or decision that thrusts the main character into the action of a story.</t>
+  </si>
+  <si>
+    <t>idiom for story characters</t>
+  </si>
+  <si>
+    <t>fatto scatenante</t>
+  </si>
+  <si>
+    <t>toothpick</t>
+  </si>
+  <si>
+    <t>stuzzicadenti</t>
+  </si>
+  <si>
+    <t>omen</t>
+  </si>
+  <si>
+    <t>presagio</t>
+  </si>
+  <si>
+    <t>harbinger</t>
+  </si>
+  <si>
+    <t>foriero</t>
+  </si>
+  <si>
+    <t>a person or thing that shows that something is going to happen soon, especially something bad</t>
+  </si>
+  <si>
+    <t>precursore</t>
+  </si>
+  <si>
+    <t>sliver</t>
+  </si>
+  <si>
+    <t>scheggia</t>
+  </si>
+  <si>
+    <t>splinter</t>
+  </si>
+  <si>
+    <t>that does not necessarily penetrates into your body. Noun</t>
+  </si>
+  <si>
+    <t>a sliver is a very small, thin piece of something, usually broken off something larger. A splinter instead is of wood, glass etc. and it usually penetrates your body. To splinter can be a verb</t>
+  </si>
+  <si>
+    <t>shrapnel</t>
+  </si>
+  <si>
+    <t>referred to a bomb</t>
+  </si>
+  <si>
+    <t>frammento</t>
+  </si>
+  <si>
+    <t>small pieces of metal that fly through the air when a bomb or similar weapon explodes and are intended to injure people</t>
+  </si>
+  <si>
+    <t>to topple</t>
+  </si>
+  <si>
+    <t>rovesciare</t>
+  </si>
+  <si>
+    <t>topple</t>
+  </si>
+  <si>
+    <t>to (cause to) lose balance and fall down. Anche "far cadere"</t>
+  </si>
+  <si>
+    <t>far cadere</t>
+  </si>
+  <si>
+    <t>to apprehend</t>
+  </si>
+  <si>
+    <t>apprehend</t>
+  </si>
+  <si>
+    <t>arrestare</t>
+  </si>
+  <si>
+    <t>catturare</t>
+  </si>
+  <si>
+    <t>a culprit</t>
+  </si>
+  <si>
+    <t>to catch and arrest someone who has not obeyed the law, "to take someone". Arrest is  to "stop someone" and referred to the legal consequences, but can be a synonym</t>
+  </si>
+  <si>
+    <t>in a bad sense</t>
+  </si>
+  <si>
+    <t>può anche essere auspicio: "good omen"</t>
   </si>
 </sst>
 </file>
@@ -1712,11 +1823,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J112"/>
+  <dimension ref="A1:J120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3664,6 +3775,9 @@
       <c r="F111" t="s">
         <v>431</v>
       </c>
+      <c r="J111" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
@@ -3683,6 +3797,160 @@
       </c>
       <c r="G112" t="s">
         <v>427</v>
+      </c>
+      <c r="J112" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>438</v>
+      </c>
+      <c r="B113" t="s">
+        <v>436</v>
+      </c>
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113" t="s">
+        <v>440</v>
+      </c>
+      <c r="E113" t="s">
+        <v>439</v>
+      </c>
+      <c r="F113" t="s">
+        <v>437</v>
+      </c>
+      <c r="G113" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>444</v>
+      </c>
+      <c r="B115" t="s">
+        <v>445</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115" t="s">
+        <v>470</v>
+      </c>
+      <c r="E115" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>446</v>
+      </c>
+      <c r="B116" t="s">
+        <v>447</v>
+      </c>
+      <c r="C116">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>448</v>
+      </c>
+      <c r="H116" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>450</v>
+      </c>
+      <c r="B117" t="s">
+        <v>451</v>
+      </c>
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117" t="s">
+        <v>453</v>
+      </c>
+      <c r="E117" t="s">
+        <v>454</v>
+      </c>
+      <c r="F117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" t="s">
+        <v>451</v>
+      </c>
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118" t="s">
+        <v>456</v>
+      </c>
+      <c r="E118" t="s">
+        <v>458</v>
+      </c>
+      <c r="G118" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>459</v>
+      </c>
+      <c r="B119" t="s">
+        <v>460</v>
+      </c>
+      <c r="C119">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>462</v>
+      </c>
+      <c r="G119" t="s">
+        <v>463</v>
+      </c>
+      <c r="J119" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>464</v>
+      </c>
+      <c r="B120" t="s">
+        <v>467</v>
+      </c>
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120" t="s">
+        <v>468</v>
+      </c>
+      <c r="E120" t="s">
+        <v>469</v>
+      </c>
+      <c r="G120" t="s">
+        <v>466</v>
+      </c>
+      <c r="J120" t="s">
+        <v>465</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837754D1-6AFA-4298-80F1-2EEC5047930B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453185C-6E0E-4DC5-845F-D29282791AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="493">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1452,6 +1452,69 @@
   </si>
   <si>
     <t>può anche essere auspicio: "good omen"</t>
+  </si>
+  <si>
+    <t>dumpster</t>
+  </si>
+  <si>
+    <t>cassonetto</t>
+  </si>
+  <si>
+    <t>also skip (bin) or wheelie bin in other countries, cause dumpster is a trademark for that specific movable waste container</t>
+  </si>
+  <si>
+    <t>from the american brand name</t>
+  </si>
+  <si>
+    <t>foley</t>
+  </si>
+  <si>
+    <t>rumorista</t>
+  </si>
+  <si>
+    <t>relating to or concerned with the addition of recorded sound effects after the shooting of a film. "A foley artist"</t>
+  </si>
+  <si>
+    <t>jammed</t>
+  </si>
+  <si>
+    <t>inceppato</t>
+  </si>
+  <si>
+    <t>unable to move</t>
+  </si>
+  <si>
+    <t>of an object or weapon</t>
+  </si>
+  <si>
+    <t>to upend</t>
+  </si>
+  <si>
+    <t>capovolgere</t>
+  </si>
+  <si>
+    <t>sconvolgere</t>
+  </si>
+  <si>
+    <t>set or turn (something) on its end or upside down. Anche sconvolgere in senso figurato: upend the world</t>
+  </si>
+  <si>
+    <t>upend</t>
+  </si>
+  <si>
+    <t>rad</t>
+  </si>
+  <si>
+    <t>fico</t>
+  </si>
+  <si>
+    <t>colloquiale</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>very good, cool, or exciting. "A rad new computer game"</t>
   </si>
 </sst>
 </file>
@@ -1823,11 +1886,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J120"/>
+  <dimension ref="A1:J125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D115" sqref="D115"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3953,6 +4016,94 @@
         <v>465</v>
       </c>
     </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>472</v>
+      </c>
+      <c r="B121" t="s">
+        <v>473</v>
+      </c>
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="D121" t="s">
+        <v>475</v>
+      </c>
+      <c r="E121" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>476</v>
+      </c>
+      <c r="B122" t="s">
+        <v>477</v>
+      </c>
+      <c r="C122">
+        <v>121</v>
+      </c>
+      <c r="E122" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>479</v>
+      </c>
+      <c r="B123" t="s">
+        <v>480</v>
+      </c>
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123" t="s">
+        <v>482</v>
+      </c>
+      <c r="E123" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>483</v>
+      </c>
+      <c r="B124" t="s">
+        <v>484</v>
+      </c>
+      <c r="C124">
+        <v>123</v>
+      </c>
+      <c r="E124" t="s">
+        <v>486</v>
+      </c>
+      <c r="F124" t="s">
+        <v>485</v>
+      </c>
+      <c r="J124" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>488</v>
+      </c>
+      <c r="B125" t="s">
+        <v>489</v>
+      </c>
+      <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125" t="s">
+        <v>490</v>
+      </c>
+      <c r="E125" t="s">
+        <v>492</v>
+      </c>
+      <c r="I125" t="s">
+        <v>491</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9453185C-6E0E-4DC5-845F-D29282791AC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C23291-2BBE-43BD-A93C-7CC8FEFD2EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="583">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1515,6 +1515,276 @@
   </si>
   <si>
     <t>very good, cool, or exciting. "A rad new computer game"</t>
+  </si>
+  <si>
+    <t>messaggero</t>
+  </si>
+  <si>
+    <t>ruse</t>
+  </si>
+  <si>
+    <t>stratagemma</t>
+  </si>
+  <si>
+    <t>a trick intended to deceive someone. "It was just a ruse to distract her while his partner took the money."</t>
+  </si>
+  <si>
+    <t>ploy</t>
+  </si>
+  <si>
+    <t>not necessarily involving deception</t>
+  </si>
+  <si>
+    <t>always involving deception, always dishonest</t>
+  </si>
+  <si>
+    <t>sotterfugio</t>
+  </si>
+  <si>
+    <t>stratagem</t>
+  </si>
+  <si>
+    <t>"this was widely interpreted as a ploy to buy time in order to consolidate his position"</t>
+  </si>
+  <si>
+    <t>to embroider</t>
+  </si>
+  <si>
+    <t>ricamare</t>
+  </si>
+  <si>
+    <t>romanzare</t>
+  </si>
+  <si>
+    <t>add fictitious or exaggerated details to (an account) to make it more interesting. "She embroidered her stories with colourful detail." Also regarding sewing and clothes</t>
+  </si>
+  <si>
+    <t>in a tale</t>
+  </si>
+  <si>
+    <t>embroider</t>
+  </si>
+  <si>
+    <t>to write about a real event or character, but adding imaginary details and changing the real facts</t>
+  </si>
+  <si>
+    <t>to fictionalize</t>
+  </si>
+  <si>
+    <t>fictionalize</t>
+  </si>
+  <si>
+    <t>hindsight</t>
+  </si>
+  <si>
+    <t>senno di poi</t>
+  </si>
+  <si>
+    <t>the ability to understand and realize something about an event after it has happened, although you did not understand or realize it at the time. "You know, with the benefit of hindsight…"</t>
+  </si>
+  <si>
+    <t>forsaken</t>
+  </si>
+  <si>
+    <t>abbandonato</t>
+  </si>
+  <si>
+    <t>emotiional depth implied</t>
+  </si>
+  <si>
+    <t>abandoned</t>
+  </si>
+  <si>
+    <t>abandoned or deserted. Also a verb. "A journey into forgotten and forsaken places". "Forsaken" carries a deeper emotional weight, often implying betrayal or a profound sense of loss. If you say "He felt forsaken", it suggests a deep emotional abandonment.</t>
+  </si>
+  <si>
+    <t>lull</t>
+  </si>
+  <si>
+    <t>pausa</t>
+  </si>
+  <si>
+    <t>stasi</t>
+  </si>
+  <si>
+    <t>calma</t>
+  </si>
+  <si>
+    <t>break</t>
+  </si>
+  <si>
+    <t>a short period of calm in which little happens</t>
+  </si>
+  <si>
+    <t>to entice</t>
+  </si>
+  <si>
+    <t>allettare</t>
+  </si>
+  <si>
+    <t>entice</t>
+  </si>
+  <si>
+    <t>attract or tempt by offering pleasure or advantage. "A show which should entice a new audience into the theatre"</t>
+  </si>
+  <si>
+    <t>pantry</t>
+  </si>
+  <si>
+    <t>dispensa</t>
+  </si>
+  <si>
+    <t>reveler</t>
+  </si>
+  <si>
+    <t>festaiolo</t>
+  </si>
+  <si>
+    <t>gaudente</t>
+  </si>
+  <si>
+    <t>reveller</t>
+  </si>
+  <si>
+    <t>gaudente. Someone who dances, drinks, sings, etc. at a party or in public, especially in a noisy way. "The hall was full of revelers who had attended the banquet." This for US, reveller for UK</t>
+  </si>
+  <si>
+    <t>snowdrift</t>
+  </si>
+  <si>
+    <t>cumulo di neve</t>
+  </si>
+  <si>
+    <t>a bank of deep snow heaped up by the wind.</t>
+  </si>
+  <si>
+    <t>heaped</t>
+  </si>
+  <si>
+    <t>colmo</t>
+  </si>
+  <si>
+    <t>anche verbo, simile a hoard. Having its contents piled above the brim or edge.</t>
+  </si>
+  <si>
+    <t>adjective</t>
+  </si>
+  <si>
+    <t>gruesome</t>
+  </si>
+  <si>
+    <t>raccapricciante</t>
+  </si>
+  <si>
+    <t>macabro</t>
+  </si>
+  <si>
+    <t>anche macabro. Causing repulsion or horror, extremely unpleasant and shocking, and usually dealing with death or injury. "The most gruesome murder"</t>
+  </si>
+  <si>
+    <t>a small room or large cupboard in a house where food is kept. Also larder</t>
+  </si>
+  <si>
+    <t>larder</t>
+  </si>
+  <si>
+    <t>a short part of a film or television programme or music recording that was removed and not included, usually because it contains mistakes</t>
+  </si>
+  <si>
+    <t>out-take</t>
+  </si>
+  <si>
+    <t>outtake</t>
+  </si>
+  <si>
+    <t>scarto</t>
+  </si>
+  <si>
+    <t>of a movie</t>
+  </si>
+  <si>
+    <t>scena tagliata</t>
+  </si>
+  <si>
+    <t>hedge</t>
+  </si>
+  <si>
+    <t>siepe</t>
+  </si>
+  <si>
+    <t>a line of bushes or small trees planted very close together, especially along the edge of a garden, field, or road</t>
+  </si>
+  <si>
+    <t>without further ado</t>
+  </si>
+  <si>
+    <t>senza ulteriori indugi</t>
+  </si>
+  <si>
+    <t>senza ulteriore indugio</t>
+  </si>
+  <si>
+    <t>Ado: a lot of activity, worry, or excitement that is unnecessary or greater than the situation deserves</t>
+  </si>
+  <si>
+    <t>to boast</t>
+  </si>
+  <si>
+    <t>vantarsi</t>
+  </si>
+  <si>
+    <t>boast</t>
+  </si>
+  <si>
+    <t>vantare</t>
+  </si>
+  <si>
+    <t>to brag</t>
+  </si>
+  <si>
+    <t>brag</t>
+  </si>
+  <si>
+    <t>in the most negative sense</t>
+  </si>
+  <si>
+    <t>say something in a boastful manner. "She's always bragging about how much money she earns."</t>
+  </si>
+  <si>
+    <t>to talk too proudly about something good that you have done or that you own. Anche vantare. "I wish she would stop boasting about her new car."</t>
+  </si>
+  <si>
+    <t>informal, about a movie. Aspramente</t>
+  </si>
+  <si>
+    <t>panned</t>
+  </si>
+  <si>
+    <t>criticato</t>
+  </si>
+  <si>
+    <t>criticized</t>
+  </si>
+  <si>
+    <t>criticize severely. "The movie was panned by the critics". Informal verb to pan</t>
+  </si>
+  <si>
+    <t>eerie</t>
+  </si>
+  <si>
+    <t>inquietante</t>
+  </si>
+  <si>
+    <t>unsettling</t>
+  </si>
+  <si>
+    <t>disquieting</t>
+  </si>
+  <si>
+    <t>about sounds, horror situations</t>
+  </si>
+  <si>
+    <t>strange in a frightening and mysterious way. Also disquieting, unsettling. "She heard the eerie noise of the wind howling through the trees."</t>
   </si>
 </sst>
 </file>
@@ -1886,11 +2156,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J125"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3929,8 +4199,11 @@
       <c r="E116" t="s">
         <v>448</v>
       </c>
-      <c r="H116" t="s">
+      <c r="F116" t="s">
         <v>449</v>
+      </c>
+      <c r="G116" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
@@ -4102,6 +4375,397 @@
       </c>
       <c r="I125" t="s">
         <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>494</v>
+      </c>
+      <c r="B126" t="s">
+        <v>495</v>
+      </c>
+      <c r="C126">
+        <v>125</v>
+      </c>
+      <c r="D126" t="s">
+        <v>499</v>
+      </c>
+      <c r="E126" t="s">
+        <v>496</v>
+      </c>
+      <c r="F126" t="s">
+        <v>500</v>
+      </c>
+      <c r="I126" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>497</v>
+      </c>
+      <c r="B127" t="s">
+        <v>495</v>
+      </c>
+      <c r="C127">
+        <v>126</v>
+      </c>
+      <c r="D127" t="s">
+        <v>498</v>
+      </c>
+      <c r="E127" t="s">
+        <v>502</v>
+      </c>
+      <c r="I127" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>503</v>
+      </c>
+      <c r="B128" t="s">
+        <v>504</v>
+      </c>
+      <c r="C128">
+        <v>127</v>
+      </c>
+      <c r="D128" t="s">
+        <v>507</v>
+      </c>
+      <c r="E128" t="s">
+        <v>506</v>
+      </c>
+      <c r="G128" t="s">
+        <v>505</v>
+      </c>
+      <c r="J128" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>510</v>
+      </c>
+      <c r="B129" t="s">
+        <v>505</v>
+      </c>
+      <c r="C129">
+        <v>128</v>
+      </c>
+      <c r="E129" t="s">
+        <v>509</v>
+      </c>
+      <c r="J129" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>512</v>
+      </c>
+      <c r="B130" t="s">
+        <v>513</v>
+      </c>
+      <c r="C130">
+        <v>129</v>
+      </c>
+      <c r="E130" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>515</v>
+      </c>
+      <c r="B131" t="s">
+        <v>516</v>
+      </c>
+      <c r="C131">
+        <v>130</v>
+      </c>
+      <c r="D131" t="s">
+        <v>517</v>
+      </c>
+      <c r="E131" t="s">
+        <v>519</v>
+      </c>
+      <c r="H131" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>520</v>
+      </c>
+      <c r="B132" t="s">
+        <v>521</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132" t="s">
+        <v>43</v>
+      </c>
+      <c r="E132" t="s">
+        <v>525</v>
+      </c>
+      <c r="F132" t="s">
+        <v>522</v>
+      </c>
+      <c r="G132" t="s">
+        <v>523</v>
+      </c>
+      <c r="I132" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>526</v>
+      </c>
+      <c r="B133" t="s">
+        <v>527</v>
+      </c>
+      <c r="C133">
+        <v>132</v>
+      </c>
+      <c r="E133" t="s">
+        <v>529</v>
+      </c>
+      <c r="J133" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>530</v>
+      </c>
+      <c r="B134" t="s">
+        <v>531</v>
+      </c>
+      <c r="C134">
+        <v>133</v>
+      </c>
+      <c r="E134" t="s">
+        <v>548</v>
+      </c>
+      <c r="I134" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>532</v>
+      </c>
+      <c r="B135" t="s">
+        <v>533</v>
+      </c>
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="E135" t="s">
+        <v>536</v>
+      </c>
+      <c r="G135" t="s">
+        <v>534</v>
+      </c>
+      <c r="I135" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>537</v>
+      </c>
+      <c r="B136" t="s">
+        <v>538</v>
+      </c>
+      <c r="C136">
+        <v>135</v>
+      </c>
+      <c r="E136" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>540</v>
+      </c>
+      <c r="B137" t="s">
+        <v>541</v>
+      </c>
+      <c r="C137">
+        <v>136</v>
+      </c>
+      <c r="D137" t="s">
+        <v>543</v>
+      </c>
+      <c r="E137" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>544</v>
+      </c>
+      <c r="B138" t="s">
+        <v>545</v>
+      </c>
+      <c r="C138">
+        <v>137</v>
+      </c>
+      <c r="E138" t="s">
+        <v>547</v>
+      </c>
+      <c r="G138" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>552</v>
+      </c>
+      <c r="B139" t="s">
+        <v>553</v>
+      </c>
+      <c r="C139">
+        <v>138</v>
+      </c>
+      <c r="D139" t="s">
+        <v>554</v>
+      </c>
+      <c r="E139" t="s">
+        <v>550</v>
+      </c>
+      <c r="G139" t="s">
+        <v>555</v>
+      </c>
+      <c r="I139" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>556</v>
+      </c>
+      <c r="B140" t="s">
+        <v>557</v>
+      </c>
+      <c r="C140">
+        <v>139</v>
+      </c>
+      <c r="E140" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>559</v>
+      </c>
+      <c r="B141" t="s">
+        <v>560</v>
+      </c>
+      <c r="C141">
+        <v>140</v>
+      </c>
+      <c r="E141" t="s">
+        <v>562</v>
+      </c>
+      <c r="G141" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>563</v>
+      </c>
+      <c r="B142" t="s">
+        <v>564</v>
+      </c>
+      <c r="C142">
+        <v>141</v>
+      </c>
+      <c r="E142" t="s">
+        <v>571</v>
+      </c>
+      <c r="G142" t="s">
+        <v>566</v>
+      </c>
+      <c r="I142" t="s">
+        <v>567</v>
+      </c>
+      <c r="J142" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>567</v>
+      </c>
+      <c r="B143" t="s">
+        <v>564</v>
+      </c>
+      <c r="C143">
+        <v>142</v>
+      </c>
+      <c r="D143" t="s">
+        <v>569</v>
+      </c>
+      <c r="E143" t="s">
+        <v>570</v>
+      </c>
+      <c r="G143" t="s">
+        <v>566</v>
+      </c>
+      <c r="H143" t="s">
+        <v>563</v>
+      </c>
+      <c r="J143" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>573</v>
+      </c>
+      <c r="B144" t="s">
+        <v>574</v>
+      </c>
+      <c r="C144">
+        <v>143</v>
+      </c>
+      <c r="D144" t="s">
+        <v>572</v>
+      </c>
+      <c r="E144" t="s">
+        <v>576</v>
+      </c>
+      <c r="H144" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>577</v>
+      </c>
+      <c r="B145" t="s">
+        <v>578</v>
+      </c>
+      <c r="C145">
+        <v>144</v>
+      </c>
+      <c r="D145" t="s">
+        <v>581</v>
+      </c>
+      <c r="E145" t="s">
+        <v>582</v>
+      </c>
+      <c r="H145" t="s">
+        <v>580</v>
+      </c>
+      <c r="I145" t="s">
+        <v>579</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C23291-2BBE-43BD-A93C-7CC8FEFD2EAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE9950-E2A9-4C13-AC93-C05788A9581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="615">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1785,6 +1785,102 @@
   </si>
   <si>
     <t>strange in a frightening and mysterious way. Also disquieting, unsettling. "She heard the eerie noise of the wind howling through the trees."</t>
+  </si>
+  <si>
+    <t>opaque</t>
+  </si>
+  <si>
+    <t>ingenuity</t>
+  </si>
+  <si>
+    <t>ingegno</t>
+  </si>
+  <si>
+    <t>someone's ability to think of clever new ways of doing something</t>
+  </si>
+  <si>
+    <t>ingegnosità</t>
+  </si>
+  <si>
+    <t>inventiva</t>
+  </si>
+  <si>
+    <t>lowly</t>
+  </si>
+  <si>
+    <t>umile</t>
+  </si>
+  <si>
+    <t>humble</t>
+  </si>
+  <si>
+    <t>refers to a social position</t>
+  </si>
+  <si>
+    <t>low in position and importance, or not respected. “Humble” refers to a state of mind that is deferential, modest, and devoid of pretense. “Lowly” refers to a social position, and not to a state of mind.</t>
+  </si>
+  <si>
+    <t>eponymous</t>
+  </si>
+  <si>
+    <t>omonimo</t>
+  </si>
+  <si>
+    <t>eponimo</t>
+  </si>
+  <si>
+    <t>che dà il proprio nome a un luogo, una stirpe, o a un libro: Atena -&gt; Atene. Non proprio come omonimo</t>
+  </si>
+  <si>
+    <t>henchman</t>
+  </si>
+  <si>
+    <t>scagnozzo</t>
+  </si>
+  <si>
+    <t>tirapiedi</t>
+  </si>
+  <si>
+    <t>sgherro</t>
+  </si>
+  <si>
+    <t>a faithful follower or political supporter, especially one prepared to engage in crime or violence by way of service. Anche sgherro</t>
+  </si>
+  <si>
+    <t>gruff</t>
+  </si>
+  <si>
+    <t>burbero</t>
+  </si>
+  <si>
+    <t>of a person's behaviour</t>
+  </si>
+  <si>
+    <t>rude</t>
+  </si>
+  <si>
+    <t>unfriendly or showing no patience. "He's quite a sweet man beneath the gruff exterior." (Of a person's voice) low and unfriendly: rauco (hoarse)</t>
+  </si>
+  <si>
+    <t>rauco</t>
+  </si>
+  <si>
+    <t>roco</t>
+  </si>
+  <si>
+    <t>hoarse</t>
+  </si>
+  <si>
+    <t>A gruff, unfamiliar voice answered the phone. Anche hoarse, ma più quando la cause è un malanno</t>
+  </si>
+  <si>
+    <t>of a person's natural voice, due to behaviour/personality</t>
+  </si>
+  <si>
+    <t>of a person's  voice due to illness</t>
+  </si>
+  <si>
+    <t>sounding rough and harsh, typically as the result of a sore throat or of shouting.</t>
   </si>
 </sst>
 </file>
@@ -2156,11 +2252,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J145"/>
+  <dimension ref="A1:J152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F145" sqref="F145"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,7 +2740,7 @@
         <v>81</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>30</v>
@@ -2656,7 +2752,7 @@
         <v>298</v>
       </c>
       <c r="F31" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G31" t="s">
         <v>84</v>
@@ -3708,6 +3804,9 @@
       <c r="E88" t="s">
         <v>342</v>
       </c>
+      <c r="I88" t="s">
+        <v>583</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
@@ -4766,6 +4865,146 @@
       </c>
       <c r="I145" t="s">
         <v>579</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>584</v>
+      </c>
+      <c r="B146" t="s">
+        <v>585</v>
+      </c>
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="E146" t="s">
+        <v>586</v>
+      </c>
+      <c r="F146" t="s">
+        <v>588</v>
+      </c>
+      <c r="G146" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>589</v>
+      </c>
+      <c r="B147" t="s">
+        <v>590</v>
+      </c>
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147" t="s">
+        <v>592</v>
+      </c>
+      <c r="E147" t="s">
+        <v>593</v>
+      </c>
+      <c r="H147" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>594</v>
+      </c>
+      <c r="B148" t="s">
+        <v>596</v>
+      </c>
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="E148" t="s">
+        <v>597</v>
+      </c>
+      <c r="F148" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>598</v>
+      </c>
+      <c r="B149" t="s">
+        <v>599</v>
+      </c>
+      <c r="C149">
+        <v>148</v>
+      </c>
+      <c r="E149" t="s">
+        <v>602</v>
+      </c>
+      <c r="F149" t="s">
+        <v>600</v>
+      </c>
+      <c r="G149" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>603</v>
+      </c>
+      <c r="B150" t="s">
+        <v>604</v>
+      </c>
+      <c r="C150">
+        <v>149</v>
+      </c>
+      <c r="D150" t="s">
+        <v>605</v>
+      </c>
+      <c r="E150" t="s">
+        <v>607</v>
+      </c>
+      <c r="F150" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>603</v>
+      </c>
+      <c r="B151" t="s">
+        <v>608</v>
+      </c>
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151" t="s">
+        <v>612</v>
+      </c>
+      <c r="E151" t="s">
+        <v>611</v>
+      </c>
+      <c r="G151" t="s">
+        <v>609</v>
+      </c>
+      <c r="H151" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>610</v>
+      </c>
+      <c r="B152" t="s">
+        <v>608</v>
+      </c>
+      <c r="C152">
+        <v>151</v>
+      </c>
+      <c r="D152" t="s">
+        <v>613</v>
+      </c>
+      <c r="E152" t="s">
+        <v>614</v>
+      </c>
+      <c r="G152" t="s">
+        <v>609</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCBE9950-E2A9-4C13-AC93-C05788A9581E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6954F0-61FE-475B-9BC9-DB76B6284C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -2256,7 +2256,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Inglese\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Vocabulary Test Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D6954F0-61FE-475B-9BC9-DB76B6284C6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E547A9A3-63C8-470D-8590-E0FDB3CA861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="626">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1881,6 +1881,39 @@
   </si>
   <si>
     <t>sounding rough and harsh, typically as the result of a sore throat or of shouting.</t>
+  </si>
+  <si>
+    <t>can't help but</t>
+  </si>
+  <si>
+    <t>to be right as rain</t>
+  </si>
+  <si>
+    <t>be right as rain</t>
+  </si>
+  <si>
+    <t>fit as a fiddle</t>
+  </si>
+  <si>
+    <t>sano come un pesce</t>
+  </si>
+  <si>
+    <t>essere perfettamente sano</t>
+  </si>
+  <si>
+    <t>modo di dire usando la pioggia</t>
+  </si>
+  <si>
+    <t>essere in gran forma</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> to feel healthy or well again. "You just need a good night's sleep, and then you'll be right as rain again."</t>
+  </si>
+  <si>
+    <t>to be very healthy and strong. "My grandmother's 89, but she's as fit as a fiddle."</t>
+  </si>
+  <si>
+    <t>idiom, modo di dire</t>
   </si>
 </sst>
 </file>
@@ -2252,25 +2285,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J152"/>
+  <dimension ref="A1:J154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E152" sqref="E152"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.77734375" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" customWidth="1"/>
+    <col min="5" max="5" width="47.53125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -2302,7 +2335,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -2322,7 +2355,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2339,7 +2372,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2350,7 +2383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2370,7 +2403,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>35</v>
       </c>
@@ -2384,7 +2417,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2395,7 +2428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2406,7 +2439,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2420,7 +2453,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -2431,7 +2464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -2442,7 +2475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -2453,7 +2486,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2473,7 +2506,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>21</v>
       </c>
@@ -2490,7 +2523,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -2504,7 +2537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2518,7 +2551,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>26</v>
       </c>
@@ -2529,7 +2562,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -2543,7 +2576,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2557,7 +2590,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>32</v>
       </c>
@@ -2577,7 +2610,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -2594,7 +2627,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>46</v>
       </c>
@@ -2611,7 +2644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -2625,7 +2658,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -2642,7 +2675,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -2656,7 +2689,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>148</v>
       </c>
@@ -2679,7 +2712,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>71</v>
       </c>
@@ -2690,7 +2723,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>73</v>
       </c>
@@ -2704,7 +2737,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>180</v>
       </c>
@@ -2721,7 +2754,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>78</v>
       </c>
@@ -2735,7 +2768,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2794,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>85</v>
       </c>
@@ -2775,7 +2808,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>149</v>
       </c>
@@ -2792,7 +2825,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>90</v>
       </c>
@@ -2815,7 +2848,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>93</v>
       </c>
@@ -2835,7 +2868,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>97</v>
       </c>
@@ -2858,7 +2891,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -2875,7 +2908,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>106</v>
       </c>
@@ -2901,7 +2934,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>109</v>
       </c>
@@ -2918,7 +2951,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>113</v>
       </c>
@@ -2932,7 +2965,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>116</v>
       </c>
@@ -2952,7 +2985,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>130</v>
       </c>
@@ -2972,7 +3005,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>125</v>
       </c>
@@ -2992,7 +3025,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>128</v>
       </c>
@@ -3009,7 +3042,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -3029,7 +3062,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>137</v>
       </c>
@@ -3052,7 +3085,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>141</v>
       </c>
@@ -3075,7 +3108,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -3095,7 +3128,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>152</v>
       </c>
@@ -3112,7 +3145,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>157</v>
       </c>
@@ -3129,7 +3162,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>160</v>
       </c>
@@ -3146,7 +3179,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>165</v>
       </c>
@@ -3160,7 +3193,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>168</v>
       </c>
@@ -3174,7 +3207,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>171</v>
       </c>
@@ -3194,7 +3227,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>176</v>
       </c>
@@ -3208,7 +3241,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>185</v>
       </c>
@@ -3228,7 +3261,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>215</v>
       </c>
@@ -3248,7 +3281,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>215</v>
       </c>
@@ -3274,7 +3307,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -3288,7 +3321,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>228</v>
       </c>
@@ -3308,7 +3341,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>233</v>
       </c>
@@ -3331,7 +3364,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>236</v>
       </c>
@@ -3351,7 +3384,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>241</v>
       </c>
@@ -3377,7 +3410,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>248</v>
       </c>
@@ -3394,7 +3427,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>253</v>
       </c>
@@ -3410,8 +3443,11 @@
       <c r="E65" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>255</v>
       </c>
@@ -3428,7 +3464,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>259</v>
       </c>
@@ -3457,7 +3493,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>262</v>
       </c>
@@ -3477,7 +3513,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>270</v>
       </c>
@@ -3497,7 +3533,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>275</v>
       </c>
@@ -3514,7 +3550,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>278</v>
       </c>
@@ -3531,7 +3567,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -3542,7 +3578,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>284</v>
       </c>
@@ -3565,7 +3601,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>288</v>
       </c>
@@ -3585,7 +3621,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>294</v>
       </c>
@@ -3599,7 +3635,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
         <v>301</v>
       </c>
@@ -3616,7 +3652,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
         <v>302</v>
       </c>
@@ -3633,7 +3669,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
         <v>309</v>
       </c>
@@ -3644,7 +3680,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
         <v>312</v>
       </c>
@@ -3655,7 +3691,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
         <v>314</v>
       </c>
@@ -3669,7 +3705,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
         <v>314</v>
       </c>
@@ -3683,7 +3719,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
         <v>320</v>
       </c>
@@ -3697,7 +3733,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
         <v>323</v>
       </c>
@@ -3711,7 +3747,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
         <v>325</v>
       </c>
@@ -3722,7 +3758,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
         <v>335</v>
       </c>
@@ -3745,7 +3781,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
         <v>335</v>
       </c>
@@ -3765,7 +3801,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
         <v>336</v>
       </c>
@@ -3788,7 +3824,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
         <v>336</v>
       </c>
@@ -3808,7 +3844,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
         <v>345</v>
       </c>
@@ -3822,7 +3858,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
         <v>347</v>
       </c>
@@ -3836,7 +3872,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
         <v>350</v>
       </c>
@@ -3850,7 +3886,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
         <v>352</v>
       </c>
@@ -3864,7 +3900,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
         <v>357</v>
       </c>
@@ -3887,7 +3923,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
         <v>356</v>
       </c>
@@ -3907,7 +3943,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
         <v>362</v>
       </c>
@@ -3927,7 +3963,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
         <v>367</v>
       </c>
@@ -3941,7 +3977,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
         <v>369</v>
       </c>
@@ -3955,7 +3991,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
         <v>374</v>
       </c>
@@ -3972,7 +4008,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
         <v>379</v>
       </c>
@@ -3995,7 +4031,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
         <v>385</v>
       </c>
@@ -4009,7 +4045,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
         <v>388</v>
       </c>
@@ -4023,7 +4059,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>390</v>
       </c>
@@ -4040,7 +4076,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>395</v>
       </c>
@@ -4063,7 +4099,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>401</v>
       </c>
@@ -4077,7 +4113,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -4094,7 +4130,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
         <v>407</v>
       </c>
@@ -4120,7 +4156,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
         <v>412</v>
       </c>
@@ -4131,7 +4167,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
         <v>414</v>
       </c>
@@ -4148,7 +4184,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
         <v>418</v>
       </c>
@@ -4168,7 +4204,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A110" t="s">
         <v>422</v>
       </c>
@@ -4188,7 +4224,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
         <v>429</v>
       </c>
@@ -4211,7 +4247,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A112" t="s">
         <v>429</v>
       </c>
@@ -4234,7 +4270,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
         <v>438</v>
       </c>
@@ -4257,7 +4293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
         <v>442</v>
       </c>
@@ -4268,7 +4304,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
         <v>444</v>
       </c>
@@ -4285,7 +4321,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
         <v>446</v>
       </c>
@@ -4305,7 +4341,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
         <v>450</v>
       </c>
@@ -4325,7 +4361,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
         <v>455</v>
       </c>
@@ -4345,7 +4381,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
         <v>459</v>
       </c>
@@ -4365,7 +4401,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
         <v>464</v>
       </c>
@@ -4388,7 +4424,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
         <v>472</v>
       </c>
@@ -4405,7 +4441,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
         <v>476</v>
       </c>
@@ -4419,7 +4455,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
         <v>479</v>
       </c>
@@ -4436,7 +4472,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
         <v>483</v>
       </c>
@@ -4456,7 +4492,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
         <v>488</v>
       </c>
@@ -4476,7 +4512,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
         <v>494</v>
       </c>
@@ -4499,7 +4535,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
         <v>497</v>
       </c>
@@ -4519,7 +4555,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
         <v>503</v>
       </c>
@@ -4542,7 +4578,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
         <v>510</v>
       </c>
@@ -4559,7 +4595,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
         <v>512</v>
       </c>
@@ -4573,7 +4609,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
         <v>515</v>
       </c>
@@ -4593,7 +4629,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
         <v>520</v>
       </c>
@@ -4619,7 +4655,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
         <v>526</v>
       </c>
@@ -4636,7 +4672,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
         <v>530</v>
       </c>
@@ -4653,7 +4689,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
         <v>532</v>
       </c>
@@ -4673,7 +4709,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
         <v>537</v>
       </c>
@@ -4687,7 +4723,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
         <v>540</v>
       </c>
@@ -4704,7 +4740,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
         <v>544</v>
       </c>
@@ -4721,7 +4757,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A139" t="s">
         <v>552</v>
       </c>
@@ -4744,7 +4780,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
         <v>556</v>
       </c>
@@ -4758,7 +4794,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A141" t="s">
         <v>559</v>
       </c>
@@ -4775,7 +4811,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A142" t="s">
         <v>563</v>
       </c>
@@ -4798,7 +4834,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A143" t="s">
         <v>567</v>
       </c>
@@ -4824,7 +4860,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A144" t="s">
         <v>573</v>
       </c>
@@ -4844,7 +4880,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A145" t="s">
         <v>577</v>
       </c>
@@ -4867,7 +4903,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A146" t="s">
         <v>584</v>
       </c>
@@ -4887,7 +4923,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A147" t="s">
         <v>589</v>
       </c>
@@ -4907,7 +4943,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A148" t="s">
         <v>594</v>
       </c>
@@ -4924,7 +4960,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A149" t="s">
         <v>598</v>
       </c>
@@ -4944,7 +4980,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A150" t="s">
         <v>603</v>
       </c>
@@ -4964,7 +5000,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A151" t="s">
         <v>603</v>
       </c>
@@ -4987,7 +5023,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A152" t="s">
         <v>610</v>
       </c>
@@ -5005,6 +5041,46 @@
       </c>
       <c r="G152" t="s">
         <v>609</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>616</v>
+      </c>
+      <c r="B153" t="s">
+        <v>620</v>
+      </c>
+      <c r="C153">
+        <v>152</v>
+      </c>
+      <c r="D153" t="s">
+        <v>621</v>
+      </c>
+      <c r="E153" t="s">
+        <v>623</v>
+      </c>
+      <c r="G153" t="s">
+        <v>622</v>
+      </c>
+      <c r="J153" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>618</v>
+      </c>
+      <c r="B154" t="s">
+        <v>619</v>
+      </c>
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154" t="s">
+        <v>625</v>
+      </c>
+      <c r="E154" t="s">
+        <v>624</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Vocabulary Test Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E547A9A3-63C8-470D-8590-E0FDB3CA861D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B0ED7E-529A-448D-B125-2DCA8D226FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="665">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -1901,9 +1901,6 @@
     <t>essere perfettamente sano</t>
   </si>
   <si>
-    <t>modo di dire usando la pioggia</t>
-  </si>
-  <si>
     <t>essere in gran forma</t>
   </si>
   <si>
@@ -1914,6 +1911,126 @@
   </si>
   <si>
     <t>idiom, modo di dire</t>
+  </si>
+  <si>
+    <t>idiom, modo di dire usando la pioggia</t>
+  </si>
+  <si>
+    <t>queasy</t>
+  </si>
+  <si>
+    <t>nauseabondo</t>
+  </si>
+  <si>
+    <t>in the sense of sickness</t>
+  </si>
+  <si>
+    <t>nauseato</t>
+  </si>
+  <si>
+    <t>nausea</t>
+  </si>
+  <si>
+    <t>nauseating</t>
+  </si>
+  <si>
+    <t>nauseous</t>
+  </si>
+  <si>
+    <t>feeling that you want to vomit. Nauseous can also mean “causing nausea,” while queasy typically only refers to the feeling of sickness or unease.</t>
+  </si>
+  <si>
+    <t>mortgage</t>
+  </si>
+  <si>
+    <t>mutuo</t>
+  </si>
+  <si>
+    <t>ipoteca</t>
+  </si>
+  <si>
+    <t>an agreement that allows you to borrow money from a bank or similar organization, especially in order to buy a house, or the amount of money itself. Anche ipoteca</t>
+  </si>
+  <si>
+    <t>poke around</t>
+  </si>
+  <si>
+    <t>curiosare in giro</t>
+  </si>
+  <si>
+    <t>frugare</t>
+  </si>
+  <si>
+    <t>curiosare</t>
+  </si>
+  <si>
+    <t>poke around (in): to search for something by moving things around, usually not in a very careful or organized way.</t>
+  </si>
+  <si>
+    <t>idiom, phrasal verb</t>
+  </si>
+  <si>
+    <t>to poke around</t>
+  </si>
+  <si>
+    <t>to poke</t>
+  </si>
+  <si>
+    <t>ficcare</t>
+  </si>
+  <si>
+    <t>poke</t>
+  </si>
+  <si>
+    <t>colpire</t>
+  </si>
+  <si>
+    <t>to push a finger or other pointed object quickly into someone or something. Poke someone in something: "You'll poke someone in the eye with that umbrella if you're not careful!" Poke something into something :"Two kids were poking a stick into the drain."</t>
+  </si>
+  <si>
+    <t>solicitor</t>
+  </si>
+  <si>
+    <t>avvocato</t>
+  </si>
+  <si>
+    <t>lawyer</t>
+  </si>
+  <si>
+    <t>barrister</t>
+  </si>
+  <si>
+    <t>Also lawyer, barrister, solicitor</t>
+  </si>
+  <si>
+    <t>to duck</t>
+  </si>
+  <si>
+    <t>abbassarsi</t>
+  </si>
+  <si>
+    <t>duck</t>
+  </si>
+  <si>
+    <t>duck down, duck your head: to move your head or the top part of your body quickly down, especially to avoid being hit</t>
+  </si>
+  <si>
+    <t>verb, quickly</t>
+  </si>
+  <si>
+    <t>to lower</t>
+  </si>
+  <si>
+    <t>earworm</t>
+  </si>
+  <si>
+    <t>tormentone</t>
+  </si>
+  <si>
+    <t>especially referred to a song</t>
+  </si>
+  <si>
+    <t>a song that you keep hearing in your head</t>
   </si>
 </sst>
 </file>
@@ -2285,11 +2402,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J154"/>
+  <dimension ref="A1:J161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E154" sqref="E154"/>
+      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -5054,13 +5171,13 @@
         <v>152</v>
       </c>
       <c r="D153" t="s">
+        <v>625</v>
+      </c>
+      <c r="E153" t="s">
+        <v>622</v>
+      </c>
+      <c r="G153" t="s">
         <v>621</v>
-      </c>
-      <c r="E153" t="s">
-        <v>623</v>
-      </c>
-      <c r="G153" t="s">
-        <v>622</v>
       </c>
       <c r="J153" t="s">
         <v>617</v>
@@ -5077,10 +5194,162 @@
         <v>153</v>
       </c>
       <c r="D154" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E154" t="s">
-        <v>624</v>
+        <v>623</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>626</v>
+      </c>
+      <c r="B155" t="s">
+        <v>627</v>
+      </c>
+      <c r="C155">
+        <v>154</v>
+      </c>
+      <c r="D155" t="s">
+        <v>628</v>
+      </c>
+      <c r="E155" t="s">
+        <v>633</v>
+      </c>
+      <c r="F155" t="s">
+        <v>630</v>
+      </c>
+      <c r="G155" t="s">
+        <v>629</v>
+      </c>
+      <c r="H155" t="s">
+        <v>631</v>
+      </c>
+      <c r="I155" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>634</v>
+      </c>
+      <c r="B156" t="s">
+        <v>635</v>
+      </c>
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="E156" t="s">
+        <v>637</v>
+      </c>
+      <c r="F156" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>644</v>
+      </c>
+      <c r="B157" t="s">
+        <v>639</v>
+      </c>
+      <c r="C157">
+        <v>156</v>
+      </c>
+      <c r="D157" t="s">
+        <v>643</v>
+      </c>
+      <c r="E157" t="s">
+        <v>642</v>
+      </c>
+      <c r="F157" t="s">
+        <v>641</v>
+      </c>
+      <c r="G157" t="s">
+        <v>640</v>
+      </c>
+      <c r="J157" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>645</v>
+      </c>
+      <c r="B158" t="s">
+        <v>646</v>
+      </c>
+      <c r="C158">
+        <v>157</v>
+      </c>
+      <c r="E158" t="s">
+        <v>649</v>
+      </c>
+      <c r="F158" t="s">
+        <v>648</v>
+      </c>
+      <c r="J158" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>650</v>
+      </c>
+      <c r="B159" t="s">
+        <v>651</v>
+      </c>
+      <c r="C159">
+        <v>158</v>
+      </c>
+      <c r="E159" t="s">
+        <v>654</v>
+      </c>
+      <c r="F159" t="s">
+        <v>653</v>
+      </c>
+      <c r="G159" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>655</v>
+      </c>
+      <c r="B160" t="s">
+        <v>656</v>
+      </c>
+      <c r="C160">
+        <v>159</v>
+      </c>
+      <c r="D160" t="s">
+        <v>659</v>
+      </c>
+      <c r="E160" t="s">
+        <v>658</v>
+      </c>
+      <c r="H160" t="s">
+        <v>660</v>
+      </c>
+      <c r="J160" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>661</v>
+      </c>
+      <c r="B161" t="s">
+        <v>662</v>
+      </c>
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161" t="s">
+        <v>663</v>
+      </c>
+      <c r="E161" t="s">
+        <v>664</v>
       </c>
     </row>
   </sheetData>

--- a/vocabulary_database3.xlsx
+++ b/vocabulary_database3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Desktop\Vocabulary Test Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lerc9\Documents\GitHub\WordDatabase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B0ED7E-529A-448D-B125-2DCA8D226FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493D9B98-DBEF-48E8-B895-A87FC1DAC16D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{23A7AB3C-B701-4EFF-9CE4-9FA82A94D0D5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="676">
   <si>
     <t>gorgheggiare</t>
   </si>
@@ -2031,6 +2031,39 @@
   </si>
   <si>
     <t>a song that you keep hearing in your head</t>
+  </si>
+  <si>
+    <t>pull someone's leg</t>
+  </si>
+  <si>
+    <t>to pull someone's leg</t>
+  </si>
+  <si>
+    <t>to try to persuade someone to believe something that is not true, as a joke. "Is it really your car or are you pulling my leg?"</t>
+  </si>
+  <si>
+    <t>prendere in giro qualcuno</t>
+  </si>
+  <si>
+    <t>idiom che utilizza le gambe</t>
+  </si>
+  <si>
+    <t>to call it a day</t>
+  </si>
+  <si>
+    <t>to stop what you are doing because you do not want to do any more or think you have done enough. "Let's call it a day."</t>
+  </si>
+  <si>
+    <t>call it a day</t>
+  </si>
+  <si>
+    <t>chiudere bottega</t>
+  </si>
+  <si>
+    <t>finire per oggi</t>
+  </si>
+  <si>
+    <t>per oggi basta</t>
   </si>
 </sst>
 </file>
@@ -2402,17 +2435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA41FC6F-33DA-4431-9734-D8AEBF9FE08E}">
-  <dimension ref="A1:J161"/>
+  <dimension ref="A1:J163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A136" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F161" sqref="F161"/>
+      <pane ySplit="1" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C160" sqref="C160:C163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.19921875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.796875" customWidth="1"/>
     <col min="5" max="5" width="47.53125" bestFit="1" customWidth="1"/>
@@ -5335,7 +5368,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A161" t="s">
         <v>661</v>
       </c>
@@ -5350,6 +5383,52 @@
       </c>
       <c r="E161" t="s">
         <v>664</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>666</v>
+      </c>
+      <c r="B162" t="s">
+        <v>668</v>
+      </c>
+      <c r="C162">
+        <v>161</v>
+      </c>
+      <c r="D162" t="s">
+        <v>669</v>
+      </c>
+      <c r="E162" t="s">
+        <v>667</v>
+      </c>
+      <c r="J162" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>670</v>
+      </c>
+      <c r="B163" t="s">
+        <v>673</v>
+      </c>
+      <c r="C163">
+        <v>162</v>
+      </c>
+      <c r="D163" t="s">
+        <v>254</v>
+      </c>
+      <c r="E163" t="s">
+        <v>671</v>
+      </c>
+      <c r="F163" t="s">
+        <v>675</v>
+      </c>
+      <c r="G163" t="s">
+        <v>674</v>
+      </c>
+      <c r="J163" t="s">
+        <v>672</v>
       </c>
     </row>
   </sheetData>
